--- a/currency_tracker.xlsx
+++ b/currency_tracker.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnathan Budd\Box Sync\SEA materials\side_projects\gdax_tracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="220" yWindow="280" windowWidth="15400" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="218" yWindow="278" windowWidth="15398" windowHeight="14123" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fees" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$J$31</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -30,27 +39,12 @@
     <t>Exchange</t>
   </si>
   <si>
-    <t>Purchased_Currency</t>
-  </si>
-  <si>
-    <t>Buy_Currency</t>
-  </si>
-  <si>
-    <t>Purchased_Amount</t>
-  </si>
-  <si>
-    <t>Buy_Amount</t>
-  </si>
-  <si>
     <t>BTC</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>GDAX</t>
   </si>
   <si>
@@ -67,13 +61,58 @@
   </si>
   <si>
     <t>USD equivalent</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Sell_amount</t>
+  </si>
+  <si>
+    <t>Buy_amount</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Bittrex</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>Transfer to RK</t>
+  </si>
+  <si>
+    <t>Fee_amount</t>
+  </si>
+  <si>
+    <t>Fee_currency</t>
+  </si>
+  <si>
+    <t>Price (sell / buy)</t>
+  </si>
+  <si>
+    <t>for RK</t>
+  </si>
+  <si>
+    <t>Price / USD</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Net gains</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -97,6 +136,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +161,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -147,13 +193,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="31" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -185,9 +233,18 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="31" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -513,43 +570,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="4" max="4" width="11.6875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>43082</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0.02</v>
@@ -558,25 +641,33 @@
         <v>16620</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <f>D2*C2</f>
+        <f t="shared" ref="F2:F9" si="0">D2*C2</f>
         <v>332.40000000000003</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>F2-D2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <f>E2</f>
+        <v>USD</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>43087</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>5.4100000000000002E-2</v>
@@ -585,28 +676,42 @@
         <v>18500</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <f>D3*C3</f>
+        <f t="shared" si="0"/>
         <v>1000.85</v>
       </c>
       <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H32" si="1">F3-D3*C3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I32" si="2">E3</f>
+        <v>USD</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>43088</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0.02</v>
@@ -615,25 +720,44 @@
         <v>17200</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <f>D4*C4</f>
+        <f t="shared" si="0"/>
         <v>344</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f>SUMPRODUCT(--($L4=$B$2:$B$100),$C$2:$C$100)-SUMPRODUCT(--($L4=$E$2:$E$100),$F$2:$F$100)</f>
+        <v>0.15569900000000003</v>
+      </c>
+      <c r="N4">
+        <v>14000</v>
+      </c>
+      <c r="O4">
+        <f>N4*M4</f>
+        <v>2179.7860000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>43089</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3.0099999999999998E-2</v>
@@ -642,25 +766,47 @@
         <v>16600</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <f>D5*C5</f>
+        <f t="shared" si="0"/>
         <v>499.65999999999997</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <f>SUMPRODUCT(--($L5=$B$2:$B$100),$C$2:$C$100)-SUMPRODUCT(--($L5=$E$2:$E$100),$F$2:$F$100)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N5">
+        <v>2577</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O11" si="3">N5*M5</f>
+        <v>103.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>43089</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0.02</v>
@@ -669,25 +815,44 @@
         <v>16000</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <f>D6*C6</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <f>SUMPRODUCT(--($L6=$B$2:$B$100),$C$2:$C$100)-SUMPRODUCT(--($L6=$E$2:$E$100),$F$2:$F$100)</f>
+        <v>1.9499999999998963E-2</v>
+      </c>
+      <c r="N6">
+        <v>800</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>15.59999999999917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>43090</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0.04</v>
@@ -696,25 +861,44 @@
         <v>3000</v>
       </c>
       <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+      <c r="L7" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
-        <f>D7*C7</f>
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7">
+        <f>SUMPRODUCT(--($L7=$B$2:$B$100),$C$2:$C$100)-SUMPRODUCT(--($L7=$E$2:$E$100),$F$2:$F$100)</f>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>250</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>43064</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0.01</v>
@@ -723,25 +907,44 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>BTC</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <f>SUMPRODUCT(--($L8=$B$2:$B$100),$C$2:$C$100)-SUMPRODUCT(--($L8=$E$2:$E$100),$F$2:$F$100)</f>
+        <v>498.75</v>
+      </c>
+      <c r="N8">
+        <v>2.4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>43064</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0.01</v>
@@ -750,33 +953,41 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <f>SUM(K4:K8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>BTC</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>43064</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <f>D10*F10</f>
         <v>5.2900000000000006E-4</v>
       </c>
       <c r="D10">
-        <v>5.2900000000000003E-2</v>
+        <f>F10/C10</f>
+        <v>18.903591682419659</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -785,22 +996,34 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>ETH</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>43064</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <f>D11*F11</f>
         <v>5.2999999999999998E-4</v>
       </c>
       <c r="D11">
-        <v>5.2999999999999999E-2</v>
+        <f>F11/C11</f>
+        <v>18.867924528301888</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -809,15 +1032,23 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>ETH</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>43075</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -826,22 +1057,40 @@
         <v>439</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <f>D12*C12</f>
         <v>439</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <f>SUM(O4:O11)</f>
+        <v>3995.4659999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>43089</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0.63290000000000002</v>
@@ -850,70 +1099,124 @@
         <v>790</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <f>D13*C13</f>
         <v>499.99100000000004</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>43088</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <f>D14*F14</f>
-        <v>180</v>
+        <f>180-0.54</f>
+        <v>179.46</v>
       </c>
       <c r="D14">
-        <v>600</v>
+        <f>1/600</f>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>0.3</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>8.9999999999995639E-4</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>ETH</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <f>SUMPRODUCT(--($L14=$B$2:$B$100),$C$2:$C$100)-SUMPRODUCT(--($L14=$E$2:$E$100),$F$2:$F$100)</f>
+        <v>-9268.2899999999991</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f>N14*M14</f>
+        <v>-9268.2899999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>43091</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <f>D15*F15</f>
-        <v>1500</v>
+        <f>1500-4.5</f>
+        <v>1495.5</v>
       </c>
       <c r="D15">
-        <v>500</v>
+        <f>1/500</f>
+        <v>2E-3</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>8.999999999999897E-3</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>ETH</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <f>O14+O12</f>
+        <v>-5272.8239999999996</v>
+      </c>
+      <c r="P15" s="3">
+        <f>-1*O15/(O14)</f>
+        <v>-0.568910122579246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>43091</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -922,22 +1225,30 @@
         <v>245</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <f>D16*C16</f>
         <v>490</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>43084</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -946,62 +1257,517 @@
         <v>300</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <f>D17*C17</f>
         <v>900</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>43089</v>
       </c>
       <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f>150-0.45</f>
+        <v>149.55000000000001</v>
+      </c>
+      <c r="D18">
+        <f>1/150</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E18" t="s">
         <v>8</v>
-      </c>
-      <c r="C18">
-        <f>D18*F18</f>
-        <v>150</v>
-      </c>
-      <c r="D18">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.9999999999998916E-3</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>LTC</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>43089</v>
       </c>
       <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f>500-1.5</f>
+        <v>498.5</v>
+      </c>
+      <c r="D19">
+        <f>1/250</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E19" t="s">
         <v>8</v>
-      </c>
-      <c r="C19">
-        <f>D19*F19</f>
-        <v>500</v>
-      </c>
-      <c r="D19">
-        <v>250</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>LTC</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0.04</v>
+      </c>
+      <c r="D20">
+        <v>13000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f>D20*C20</f>
+        <v>520</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A21" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2.6630000000000001E-2</v>
+      </c>
+      <c r="D21">
+        <f>1/0.0267</f>
+        <v>37.453183520599246</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>2.6217228464420206E-3</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="2"/>
+        <v>ETH</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A22" s="2">
+        <v>43452</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>498.75</v>
+      </c>
+      <c r="D22">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0.02</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>4.9999999999997963E-5</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>BTC</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>43076</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f>C21</f>
+        <v>2.6630000000000001E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1.0299999999999997E-3</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>BTC</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
+        <v>43083</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0.02</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>0.02</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>BTC</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A25" s="2">
+        <v>43440</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>439</v>
+      </c>
+      <c r="D25">
+        <f>1/439</f>
+        <v>2.2779043280182231E-3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>ETH</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A26" s="1">
+        <v>43076</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>ETH</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A27" s="2">
+        <v>43246</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2.827</v>
+      </c>
+      <c r="D27">
+        <v>176.83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>507.45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>7.551589999999976</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A28" s="1">
+        <v>42900</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1.4924999999999999</v>
+      </c>
+      <c r="D28">
+        <v>335.01</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>507.45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>7.4475750000000289</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A29" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <f>F3</f>
+        <v>1000.85</v>
+      </c>
+      <c r="D29">
+        <f>1/D3</f>
+        <v>5.4054054054054054E-5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <f>C3</f>
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>BTC</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A30" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <f>F5</f>
+        <v>499.65999999999997</v>
+      </c>
+      <c r="D30">
+        <f>1/D5</f>
+        <v>6.0240963855421684E-5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f>C5</f>
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="2"/>
+        <v>BTC</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A31" s="1">
+        <v>43103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f>F13</f>
+        <v>499.99100000000004</v>
+      </c>
+      <c r="D31">
+        <f>1/D13</f>
+        <v>1.2658227848101266E-3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <f>C13</f>
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>ETH</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A32" s="1">
+        <v>43102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0.05</v>
+      </c>
+      <c r="D32">
+        <v>151000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <f>D32*C32</f>
+        <v>7550</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="2"/>
+        <v>USD</v>
       </c>
     </row>
   </sheetData>
